--- a/src/assets/hanterade_konton.xlsx
+++ b/src/assets/hanterade_konton.xlsx
@@ -11,18 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
   <si>
     <t>Förnamn</t>
   </si>
   <si>
     <t>Efternamn</t>
-  </si>
-  <si>
-    <t>EPPN/användarnamn</t>
-  </si>
-  <si>
-    <t>Lösenord</t>
   </si>
 </sst>
 </file>
@@ -49,12 +43,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -67,16 +67,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -93,10 +93,10 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -116,6 +116,7 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
@@ -267,9 +268,9 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -349,7 +350,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -377,10 +378,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -636,9 +637,9 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
             <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
+              <a:alpha val="35000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
@@ -926,7 +927,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -954,10 +955,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1208,17 +1209,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="21.4219" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.2109" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.1641" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.1719" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.55" customHeight="1">
@@ -1228,66 +1227,42 @@
       <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s" s="2">
-        <v>3</v>
-      </c>
     </row>
     <row r="2" ht="13.55" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
     </row>
     <row r="3" ht="13.55" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
     </row>
     <row r="4" ht="13.55" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
     </row>
     <row r="5" ht="13.55" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
     </row>
     <row r="6" ht="13.55" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
     </row>
     <row r="7" ht="13.55" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
     </row>
     <row r="8" ht="13.55" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
     </row>
     <row r="9" ht="13.55" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
     </row>
     <row r="10" ht="13.55" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/assets/hanterade_konton.xlsx
+++ b/src/assets/hanterade_konton.xlsx
@@ -22,10 +22,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t xml:space="preserve">Given name</t>
+    <t xml:space="preserve">Förnamn</t>
   </si>
   <si>
-    <t xml:space="preserve">Surname</t>
+    <t xml:space="preserve">Efternamn </t>
   </si>
 </sst>
 </file>
@@ -137,10 +137,10 @@
   <dimension ref="A1:AMJ1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.0078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
